--- a/BÁO CÁO/3 Ông Táo_Báo cáo tiến độ.xlsx
+++ b/BÁO CÁO/3 Ông Táo_Báo cáo tiến độ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>DANH SÁCH THÀNH VIÊN</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Code giao diện đăng nhập, đăng ký</t>
   </si>
   <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>Viết controller và service xử lí đăng nhập, đăng ký</t>
-  </si>
-  <si>
     <t>Lê Hữu Lợi - 52100819</t>
   </si>
   <si>
@@ -110,34 +104,46 @@
     <t xml:space="preserve">Thiết kế giao diện chi tiết bài viết </t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
     <t>Thiết kế giao diện admin,user</t>
   </si>
   <si>
     <t>Hoàn thành các database còn lại</t>
   </si>
   <si>
-    <t>Vẽ ERD</t>
-  </si>
-  <si>
     <t>Làm chức năng đăng nhập,đăng kí,load dữ liệu</t>
   </si>
   <si>
-    <t>Làm chức năng quản lí tài khoản và lọc theo từ khoá</t>
+    <t>https://drive.google.com/drive/folders/1_hbUJxfO0byW0FRJhExqW97WDPx7CW14</t>
   </si>
   <si>
-    <t>Làm chức năng đăng bài ở admin và người dùng,lọc theo tiêu chí</t>
+    <t>https://drive.google.com/drive/folders/10aHke-rbJoMCRUyr_NjH4-uzZMrrwTO9</t>
   </si>
   <si>
-    <t>Làm chức năng phê duyệt đăng bài,lượt xem,lọc theo tỉnh thành</t>
+    <t>Làm các chức năng của Admin</t>
   </si>
   <si>
-    <t>Vẽ Sequence,Tổng hợp các nội dung word</t>
+    <t>Vẽ ERD, Vẽ Sequence,Tổng hợp các nội dung word</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/1_hbUJxfO0byW0FRJhExqW97WDPx7CW14</t>
+    <t>Làm các chức năng trang chủ, trang địa điểm, ẩm thực</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>Hiển thị dữ liệu trên trang chủ, trang địa điểm, trang ẩm thực</t>
+  </si>
+  <si>
+    <t>Làm các chức năng tìm kiếm, lọc, sắp xếp của admin và trang chủ</t>
+  </si>
+  <si>
+    <t>Chức năng quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>Viết controller xử lí đăng nhập, đăng ký</t>
+  </si>
+  <si>
+    <t>Tạo các Repository, Service, DTO</t>
   </si>
 </sst>
 </file>
@@ -241,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,9 +264,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -497,12 +500,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
@@ -533,14 +536,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -575,7 +578,9 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -835,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
+      <c r="C11" s="7">
+        <v>3</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -967,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -1003,10 +1008,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>28</v>
+      <c r="C16" s="7">
+        <v>3</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -1039,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -1071,10 +1076,18 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="6">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1159,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
@@ -1195,10 +1208,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -1234,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -1263,10 +1276,18 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1355,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -1391,10 +1412,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -1427,10 +1448,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -1551,10 +1572,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="8">
         <v>1</v>
@@ -1587,10 +1608,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
@@ -1623,10 +1644,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
